--- a/AI_genegator/products_3_try.xlsx
+++ b/AI_genegator/products_3_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\AI_genegator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448D4A40-9214-4053-AEC9-FE6D025EBE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9004DA14-8CDE-4A82-8E60-E66E93E75C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="3340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="3342">
   <si>
     <t>10</t>
   </si>
@@ -10107,43 +10107,71 @@
     <t>Название модели</t>
   </si>
   <si>
+    <t>00-00081160</t>
+  </si>
+  <si>
+    <t>41zero42 Spectre Sky Glossy Настенная плитка 5x25 см</t>
+  </si>
+  <si>
+    <t>41zero42</t>
+  </si>
+  <si>
+    <t>Spectre</t>
+  </si>
+  <si>
+    <t>🌌 **41zero42 Spectre Sky Glossy: Ваше окно в мир безупречной элегантности!** 🌌  
+Погрузитесь в атмосферу утончённого стиля с настенной плиткой **41zero42 Spectre Sky Glossy** из культовой коллекции **Spectre**. Эта изысканная плитка размером **5x25 см** словно создана, чтобы воплотить в реальность мечты о современном интерьере с ноткой небесной лёгкости.  
+✨ **Цвет и поверхность**: Глянцевое покрытие дарит поверхности зеркальный блеск, который напоминает о бездонной небесной лазури. Каждая плитка словно отражает свет, добавляя помещению глубину и лёгкость.  
+🎨 **Художественное исполнение**: Плитка выполнена в трендовом небесно-голубом оттенке, который идеально подходит как для акцентных стен, так и для создания спокойной, гармоничной атмосферы в пространстве.  
+📏 **Размер и форма**: Узкий формат **5x25 см** — это настоящая находка для дизайнеров! Он позволяет играть с укладкой: создавайте классические кирпичные узоры, диагональные вариации или подчёркивайте минималистский стиль прямыми линиями.  
+💎 **Преимущества**:  
+- **Универсальность**: Подходит для любых интерьеров — от скандинавских минималистичных до смелых арт-деко.  
+- **Лёгкость в уходе**: Гладкая поверхность не требует сложного ухода, сохраняя идеальный вид на долгие годы.  
+- **Игра света**: Глянцевое покрытие усиливает естественное и искусственное освещение, делая пространство визуально шире.  
+🔷 **Интересный факт**: Итальянская фабрика **41zero42** славится своим инновационным подходом к дизайну и материалам. Коллекция **Spectre** была вдохновлена природной игрой света и цвета, что делает каждую плитку настоящей каплей неба у вас дома.  
+Создайте уникальное пространство, где каждая деталь дышит стильной простотой и небесной гармонией. С **41zero42 Spectre Sky Glossy** ваш интерьер станет произведением искусства! ✨</t>
+  </si>
+  <si>
+    <t>00-00079978</t>
+  </si>
+  <si>
+    <t>Equipe Arrow 25827 Green Kelp Настенная плитка 5x25 см</t>
+  </si>
+  <si>
+    <t>EQUIPE</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>Позвольте вашему интерьеру засиять свежестью и утонченностью с потрясающей настенной плиткой **Equipe Arrow 25827 Green Kelp**! Эта плитка из коллекции **Arrow** — настоящий гимн современным дизайнам с ноткой ретро-элегантности. Ее изысканный оттенок "зелёных водорослей" оживляет пространство и наполняет его природной гармонией. 
+Размер 5x25 см — идеальный выбор для создания стильных акцентов или эффектных узоров в виде "ёлочки". Уникальная форма напоминает вытянутую стрелу, что добавляет интерьеру динамики и визуального интереса. Гладкая глянцевая поверхность плитки отражает свет, создавая ощущение глубины и игры текстур, а также визуально увеличивая пространство. 
+**Equipe Arrow Green Kelp** — это не просто плитка, это возможность превратить стены в произведение искусства. Она идеально подходит для кухонь, ванных комнат или даже стильных акцентных стен в гостиных или прихожих. Хотите добавить интерьеру индивидуальности? Сочетайте её с плитками других оттенков коллекции Arrow и создавайте свои уникальные дизайнерские шедевры. 
+Эта плитка — это не только красота, но и практичность. Она проста в уходе, устойчива к воздействию влаги и сохраняет свой первозданный вид на долгие годы. 
+**Интересный факт:** оттенок Green Kelp вдохновлён подводной флорой, символизирующей спокойствие и обновление. Такой элемент декора принесёт в ваш дом атмосферу умиротворения и свежести. 
+Позвольте себе экспериментировать с дизайном и создавайте пространство, которое вызовет восторг у каждого гостя! **Equipe Arrow 25827 Green Kelp** — это ваш путь к интерьеру мечты.</t>
+  </si>
+  <si>
+    <t>00-00081629</t>
+  </si>
+  <si>
+    <t>Ribesalbes Ocean Petal Pink Gloss Настенная плитка 7,5x30 см</t>
+  </si>
+  <si>
     <t>Ribesalbes</t>
   </si>
   <si>
-    <t>EQUIPE</t>
-  </si>
-  <si>
     <t>OCEAN</t>
   </si>
   <si>
-    <t>41zero42</t>
-  </si>
-  <si>
-    <t>Spectre</t>
-  </si>
-  <si>
-    <t>Arrow</t>
-  </si>
-  <si>
-    <t>00-00081160</t>
-  </si>
-  <si>
-    <t>41zero42 Spectre Sky Glossy Настенная плитка 5x25 см</t>
-  </si>
-  <si>
-    <t>Ошибка при генерации описания</t>
-  </si>
-  <si>
-    <t>00-00079978</t>
-  </si>
-  <si>
-    <t>Equipe Arrow 25827 Green Kelp Настенная плитка 5x25 см</t>
-  </si>
-  <si>
-    <t>00-00081629</t>
-  </si>
-  <si>
-    <t>Ribesalbes Ocean Petal Pink Gloss Настенная плитка 7,5x30 см</t>
+    <t>Погрузитесь в атмосферу элегантности и утончённой гармонии с настенной плиткой **Ribesalbes Ocean Petal Pink Gloss**. Эта изысканная плитка размером **7,5x30 см** из коллекции **Ocean** — как нежный лепесток розы, окутанный утренним блеском росы. Её глянцевая поверхность излучает мягкое сияние, добавляя интерьеру глубины и утончённого шика.
+Соблазнительный оттенок **Petal Pink** — это воплощение нежности и романтики, идеально подходящее для создания уютных и стильных пространств. Мягкий розовый цвет с переливами света станет акцентом, который вдохновляет и завораживает. Эта плитка словно приглашает на уютный морской берег, где каждый штрих – это игра искусства и природы.
+Идеальная форма прямоугольника и компактные габариты позволяют создавать разнообразные укладки – от классической кирпичной до смелых диагональных композиций. Стильный глянец не только визуально расширяет пространство, но и добавляет стенам свежести и лёгкости. Поверхность плитки легко очищается, сохраняя свою первозданную красоту даже спустя годы.
+Преимущества **Ribesalbes Ocean Petal Pink Gloss**: 
+- **Эстетика**: утончённый дизайн в трендовом розовом оттенке.
+- **Многофункциональность**: подходит для ванных комнат, кухонь и акцентных стен в жилых пространствах.
+- **Качество**: гарантированная долговечность и устойчивость к внешним воздействиям.
+Добавьте нотку изысканности в интерьер с плиткой **Ribesalbes Ocean Petal Pink Gloss** – это не просто отделочный материал, а настоящий элемент декора, который создаёт настроение и вдохновляет своей красотой.</t>
   </si>
 </sst>
 </file>
@@ -25202,7 +25230,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A3:XFD7"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25237,19 +25265,19 @@
         <v>1518</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3333</v>
+        <v>3327</v>
       </c>
       <c r="C2" t="s">
-        <v>3334</v>
+        <v>3328</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>3329</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>3330</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" t="s">
         <v>3331</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3335</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -25257,19 +25285,19 @@
         <v>1524</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3334</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3335</v>
+      </c>
+      <c r="F3" t="s">
         <v>3336</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3337</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3328</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3332</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3335</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -25277,19 +25305,19 @@
         <v>1525</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C4" t="s">
         <v>3338</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="4" t="s">
         <v>3339</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>3327</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>3329</v>
+        <v>3340</v>
       </c>
       <c r="F4" t="s">
-        <v>3335</v>
+        <v>3341</v>
       </c>
     </row>
   </sheetData>

--- a/AI_genegator/products_3_try.xlsx
+++ b/AI_genegator/products_3_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\AI_genegator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9004DA14-8CDE-4A82-8E60-E66E93E75C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D229AC-997A-4CDB-995F-3E2F614FC391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="3342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361" uniqueCount="3339">
   <si>
     <t>10</t>
   </si>
@@ -10119,19 +10119,6 @@
     <t>Spectre</t>
   </si>
   <si>
-    <t>🌌 **41zero42 Spectre Sky Glossy: Ваше окно в мир безупречной элегантности!** 🌌  
-Погрузитесь в атмосферу утончённого стиля с настенной плиткой **41zero42 Spectre Sky Glossy** из культовой коллекции **Spectre**. Эта изысканная плитка размером **5x25 см** словно создана, чтобы воплотить в реальность мечты о современном интерьере с ноткой небесной лёгкости.  
-✨ **Цвет и поверхность**: Глянцевое покрытие дарит поверхности зеркальный блеск, который напоминает о бездонной небесной лазури. Каждая плитка словно отражает свет, добавляя помещению глубину и лёгкость.  
-🎨 **Художественное исполнение**: Плитка выполнена в трендовом небесно-голубом оттенке, который идеально подходит как для акцентных стен, так и для создания спокойной, гармоничной атмосферы в пространстве.  
-📏 **Размер и форма**: Узкий формат **5x25 см** — это настоящая находка для дизайнеров! Он позволяет играть с укладкой: создавайте классические кирпичные узоры, диагональные вариации или подчёркивайте минималистский стиль прямыми линиями.  
-💎 **Преимущества**:  
-- **Универсальность**: Подходит для любых интерьеров — от скандинавских минималистичных до смелых арт-деко.  
-- **Лёгкость в уходе**: Гладкая поверхность не требует сложного ухода, сохраняя идеальный вид на долгие годы.  
-- **Игра света**: Глянцевое покрытие усиливает естественное и искусственное освещение, делая пространство визуально шире.  
-🔷 **Интересный факт**: Итальянская фабрика **41zero42** славится своим инновационным подходом к дизайну и материалам. Коллекция **Spectre** была вдохновлена природной игрой света и цвета, что делает каждую плитку настоящей каплей неба у вас дома.  
-Создайте уникальное пространство, где каждая деталь дышит стильной простотой и небесной гармонией. С **41zero42 Spectre Sky Glossy** ваш интерьер станет произведением искусства! ✨</t>
-  </si>
-  <si>
     <t>00-00079978</t>
   </si>
   <si>
@@ -10144,14 +10131,6 @@
     <t>Arrow</t>
   </si>
   <si>
-    <t>Позвольте вашему интерьеру засиять свежестью и утонченностью с потрясающей настенной плиткой **Equipe Arrow 25827 Green Kelp**! Эта плитка из коллекции **Arrow** — настоящий гимн современным дизайнам с ноткой ретро-элегантности. Ее изысканный оттенок "зелёных водорослей" оживляет пространство и наполняет его природной гармонией. 
-Размер 5x25 см — идеальный выбор для создания стильных акцентов или эффектных узоров в виде "ёлочки". Уникальная форма напоминает вытянутую стрелу, что добавляет интерьеру динамики и визуального интереса. Гладкая глянцевая поверхность плитки отражает свет, создавая ощущение глубины и игры текстур, а также визуально увеличивая пространство. 
-**Equipe Arrow Green Kelp** — это не просто плитка, это возможность превратить стены в произведение искусства. Она идеально подходит для кухонь, ванных комнат или даже стильных акцентных стен в гостиных или прихожих. Хотите добавить интерьеру индивидуальности? Сочетайте её с плитками других оттенков коллекции Arrow и создавайте свои уникальные дизайнерские шедевры. 
-Эта плитка — это не только красота, но и практичность. Она проста в уходе, устойчива к воздействию влаги и сохраняет свой первозданный вид на долгие годы. 
-**Интересный факт:** оттенок Green Kelp вдохновлён подводной флорой, символизирующей спокойствие и обновление. Такой элемент декора принесёт в ваш дом атмосферу умиротворения и свежести. 
-Позвольте себе экспериментировать с дизайном и создавайте пространство, которое вызовет восторг у каждого гостя! **Equipe Arrow 25827 Green Kelp** — это ваш путь к интерьеру мечты.</t>
-  </si>
-  <si>
     <t>00-00081629</t>
   </si>
   <si>
@@ -10162,16 +10141,6 @@
   </si>
   <si>
     <t>OCEAN</t>
-  </si>
-  <si>
-    <t>Погрузитесь в атмосферу элегантности и утончённой гармонии с настенной плиткой **Ribesalbes Ocean Petal Pink Gloss**. Эта изысканная плитка размером **7,5x30 см** из коллекции **Ocean** — как нежный лепесток розы, окутанный утренним блеском росы. Её глянцевая поверхность излучает мягкое сияние, добавляя интерьеру глубины и утончённого шика.
-Соблазнительный оттенок **Petal Pink** — это воплощение нежности и романтики, идеально подходящее для создания уютных и стильных пространств. Мягкий розовый цвет с переливами света станет акцентом, который вдохновляет и завораживает. Эта плитка словно приглашает на уютный морской берег, где каждый штрих – это игра искусства и природы.
-Идеальная форма прямоугольника и компактные габариты позволяют создавать разнообразные укладки – от классической кирпичной до смелых диагональных композиций. Стильный глянец не только визуально расширяет пространство, но и добавляет стенам свежести и лёгкости. Поверхность плитки легко очищается, сохраняя свою первозданную красоту даже спустя годы.
-Преимущества **Ribesalbes Ocean Petal Pink Gloss**: 
-- **Эстетика**: утончённый дизайн в трендовом розовом оттенке.
-- **Многофункциональность**: подходит для ванных комнат, кухонь и акцентных стен в жилых пространствах.
-- **Качество**: гарантированная долговечность и устойчивость к внешним воздействиям.
-Добавьте нотку изысканности в интерьер с плиткой **Ribesalbes Ocean Petal Pink Gloss** – это не просто отделочный материал, а настоящий элемент декора, который создаёт настроение и вдохновляет своей красотой.</t>
   </si>
 </sst>
 </file>
@@ -25230,7 +25199,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25276,49 +25245,43 @@
       <c r="E2" s="4" t="s">
         <v>3330</v>
       </c>
-      <c r="F2" t="s">
-        <v>3331</v>
-      </c>
+      <c r="F2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1524</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C3" t="s">
         <v>3332</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="4" t="s">
         <v>3333</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>3334</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>3335</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3336</v>
-      </c>
+      <c r="F3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1525</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>3337</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="4" t="s">
         <v>3338</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>3339</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>3340</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3341</v>
-      </c>
+      <c r="F4"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/AI_genegator/products_3_try.xlsx
+++ b/AI_genegator/products_3_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\AI_genegator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D229AC-997A-4CDB-995F-3E2F614FC391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6B2BB5-D0C7-4883-9D04-472EDAC0317A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361" uniqueCount="3339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="3342">
   <si>
     <t>10</t>
   </si>
@@ -10119,6 +10119,12 @@
     <t>Spectre</t>
   </si>
   <si>
+    <t>Погрузитесь в волшебство современного дизайна с настенной плиткой 41zero42 Spectre Sky Glossy. Эта изысканная плитка размером 5x25 см из коллекции Spectre итальянской фабрики 41zero42 создана для тех, кто ценит стиль, элегантность и утонченность. Сияющая глянцевая поверхность в небесно-голубом оттенке добавляет помещению свежести и легкости, превращая стены в настоящие арт-объекты. 
+Ее вытянутая форма и компактные размеры позволяют создавать оригинальные узоры, будь то строгая геометрия или игривые мозаичные композиции. Плитка не только привлекает своим сверкающим блеском, но и идеально отражает свет, создавая атмосферу воздушности и простора. 
+Коллекция Spectre – это гармония современного минимализма и итальянской изысканности. Каждый элемент продуман до мельчайших деталей: от безупречно гладкой поверхности до насыщенного цвета, который будто переносит вас в бескрайние небесные просторы. Эта плитка станет идеальным выбором для ванной комнаты, кухни или акцента в гостиной, подчеркивая ваш вкус и стремление к совершенству. 
+С плиткой 41zero42 Spectre Sky Glossy ваше пространство засияет новыми гранями стиля. Создайте интерьер, который вдохновляет!</t>
+  </si>
+  <si>
     <t>00-00079978</t>
   </si>
   <si>
@@ -10131,6 +10137,11 @@
     <t>Arrow</t>
   </si>
   <si>
+    <t>Погрузитесь в мир изысканности и утончённого стиля с настенной плиткой Equipe Arrow 25827 Green Kelp. Эта изящная плитка размером 5x25 см станет настоящим украшением вашего интерьера, добавляя в него нотки элегантности и современности. Цвет "зелёный келп" привносит природную гармонию, сочетая свежесть морских оттенков с глубиной зелёных тонов, что делает её идеальным выбором для пространств, где важен баланс между уютом и динамикой.
+Уникальная форма плитки в виде стрелы (Arrow) дарит возможность создавать оригинальные узоры на стенах, превращая их в настоящее произведение искусства. Матовая поверхность подчёркивает природное вдохновение дизайна, добавляя текстурности и мягкости восприятия. Благодаря компактным размерам, плитка идеально подходит для акцентных стен, кухонных фартуков или ванных комнат, позволяя экспериментировать с выкладкой и создавать эффектные визуальные композиции.
+Equipe Arrow 25827 Green Kelp – это не просто плитка, это инструмент для выражения вашего вкуса и креативности. Превратите свои стены в шедевр, вдохновлённый природой и актуальными дизайнерскими трендами.</t>
+  </si>
+  <si>
     <t>00-00081629</t>
   </si>
   <si>
@@ -10141,6 +10152,11 @@
   </si>
   <si>
     <t>OCEAN</t>
+  </si>
+  <si>
+    <t>Погрузитесь в романтику и элегантность с настенной плиткой Ribesalbes Ocean Petal Pink Gloss! Этот изысканный оттенок нежного розового словно создан, чтобы напоминать о лепестках утренней розы, сияющих под лучами солнца. Формат 7,5x30 см добавляет интерьеру современную изысканность, а глянцевая поверхность плитки отражает свет, создавая эффект объема и визуальной легкости.
+Коллекция Ocean от испанской фабрики Ribesalbes – это настоящий гимн стилю и качеству. Плитка Petal Pink Gloss станет гармоничным акцентом в ванной комнате, кухне или любой другой зоне, которую вы хотите наполнить уютом и эстетикой. Ее универсальный размер позволяет экспериментировать с укладкой, создавая классические, елочные или горизонтальные узоры.
+Цвет и фактура этой плитки дарят ощущение тепла и нежности, идеально сочетаясь как с нейтральной палитрой, так и с яркими акцентами. Это не просто отделочный материал, а деталь, способная превратить пространство в произведение искусства. Ribesalbes Ocean Petal Pink Gloss – выбор тех, кто стремится к совершенству и ценит красоту в каждом штрихе!</t>
   </si>
 </sst>
 </file>
@@ -10203,7 +10219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -10215,6 +10231,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -25199,7 +25218,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25229,7 +25248,7 @@
       </c>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1518</v>
       </c>
@@ -25245,43 +25264,49 @@
       <c r="E2" s="4" t="s">
         <v>3330</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="6" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1524</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="C3" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>3334</v>
-      </c>
-      <c r="F3"/>
+        <v>3335</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>3336</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1525</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3335</v>
+        <v>3337</v>
       </c>
       <c r="C4" t="s">
-        <v>3336</v>
+        <v>3338</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3337</v>
+        <v>3339</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3338</v>
-      </c>
-      <c r="F4"/>
+        <v>3340</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3341</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
